--- a/event_study/mentioned_stock.xlsx
+++ b/event_study/mentioned_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Python Quant\TrumpTweetsPrivate\event_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AA2A63-3A83-4A83-BBA8-4D6B1C4E0FBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3889CC-B431-47C9-BA6F-79E548EE1F61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="18000" xr2:uid="{7878AB7C-8233-0E4A-9B23-CE8563D81F18}"/>
   </bookViews>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">company </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ticker</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1016,6 +1012,10 @@
   </si>
   <si>
     <t xml:space="preserve">Asked BOE to price out LMT </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2239,8 +2239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4B5DEB-6ED9-3A48-9AFB-493EBF1260C4}">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="116" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2256,16 +2256,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>260</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2273,16 +2273,16 @@
         <v>43544.86922453704</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2290,16 +2290,16 @@
         <v>43541.935729166667</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D3" s="6">
         <v>-1</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2307,16 +2307,16 @@
         <v>43538.679629629631</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2324,16 +2324,16 @@
         <v>43523.389178240737</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2341,16 +2341,16 @@
         <v>43433.484189814822</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" s="6">
         <v>-1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2358,16 +2358,16 @@
         <v>43431.795590277783</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D7" s="6">
         <v>-1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2375,16 +2375,16 @@
         <v>43322.949826388889</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2392,16 +2392,16 @@
         <v>43306.027268518519</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" s="6">
         <v>-1</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2409,16 +2409,16 @@
         <v>43306.027268518519</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D10" s="6">
         <v>-1</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2426,16 +2426,16 @@
         <v>43300.432800925933</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2443,16 +2443,16 @@
         <v>43291.942685185182</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2460,16 +2460,16 @@
         <v>43290.714224537027</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" s="6">
         <v>-1</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2477,16 +2477,16 @@
         <v>43277.484618055547</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D14" s="6">
         <v>-1</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2494,16 +2494,16 @@
         <v>43193.580289351848</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D15" s="6">
         <v>-1</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2511,16 +2511,16 @@
         <v>43165.546620370369</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16" s="6">
         <v>1</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2528,16 +2528,16 @@
         <v>43128.554548611108</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2545,16 +2545,16 @@
         <v>43124.499282407407</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2562,16 +2562,16 @@
         <v>43124.499282407407</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D19" s="6">
         <v>1</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2579,16 +2579,16 @@
         <v>43124.499282407407</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2596,16 +2596,16 @@
         <v>43117.978125000001</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D21" s="6">
         <v>1</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2613,16 +2613,16 @@
         <v>43112.120196759257</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D22" s="6">
         <v>1</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2630,16 +2630,16 @@
         <v>43111.186828703707</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2647,16 +2647,16 @@
         <v>43098.544548611113</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D24" s="6">
         <v>-1</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2664,16 +2664,16 @@
         <v>43041.856458333343</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2681,16 +2681,16 @@
         <v>43000.746516203697</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2698,16 +2698,16 @@
         <v>42963.425520833327</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D27" s="6">
         <v>-1</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2715,16 +2715,16 @@
         <v>42961.538043981483</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D28" s="6">
         <v>-1</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2732,16 +2732,16 @@
         <v>42941.108530092592</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D29" s="6">
         <v>-1</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2749,16 +2749,16 @@
         <v>42937.147048611107</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" s="6">
-        <v>1</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2766,16 +2766,16 @@
         <v>42937.147048611107</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D31" s="6">
         <v>1</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2783,16 +2783,16 @@
         <v>42937.147048611107</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>215</v>
-      </c>
       <c r="D32" s="6">
         <v>1</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2800,16 +2800,16 @@
         <v>42937.147048611107</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D33" s="6">
-        <v>1</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="11"/>
@@ -2822,16 +2822,16 @@
         <v>42862.957488425927</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="D34" s="6">
         <v>-1</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -2846,16 +2846,16 @@
         <v>42822.441689814812</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D35" s="6">
-        <v>1</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
@@ -2869,16 +2869,16 @@
         <v>42800.679861111108</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D36" s="6">
-        <v>1</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -2892,16 +2892,16 @@
         <v>42774.807326388887</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="D37" s="6">
-        <v>1</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="11"/>
@@ -2913,16 +2913,16 @@
         <v>42774.660428240742</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>229</v>
       </c>
       <c r="D38" s="6">
         <v>-1</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -2936,16 +2936,16 @@
         <v>42760.032604166663</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D39" s="6">
-        <v>1</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="H39" s="10"/>
       <c r="I39" s="11"/>
@@ -2957,16 +2957,16 @@
         <v>42752.746967592589</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D40" s="6">
         <v>1</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
@@ -2980,16 +2980,16 @@
         <v>42752.746967592589</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>235</v>
-      </c>
       <c r="D41" s="6">
         <v>1</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -3004,16 +3004,16 @@
         <v>42744.594837962963</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="6">
         <v>1</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
@@ -3028,16 +3028,16 @@
         <v>42744.593171296299</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D43" s="6">
-        <v>1</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>238</v>
       </c>
       <c r="H43" s="10"/>
       <c r="I43" s="11"/>
@@ -3049,16 +3049,16 @@
         <v>42740.760069444441</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="6">
         <v>-1</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -3073,16 +3073,16 @@
         <v>42739.554965277777</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="6">
         <v>1</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3090,16 +3090,16 @@
         <v>42738.520891203712</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="6">
         <v>-1</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3107,16 +3107,16 @@
         <v>42706.92083333333</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="D47" s="6">
         <v>-1</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3124,16 +3124,16 @@
         <v>42710.369444444441</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D48" s="6">
         <v>-1</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3141,16 +3141,16 @@
         <v>42716.601388888892</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="D49" s="6">
         <v>-1</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3158,16 +3158,16 @@
         <v>42726.726388888892</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="D50" s="6">
         <v>-1</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3175,16 +3175,16 @@
         <v>42691.910416666666</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" s="6">
+        <v>1</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D51" s="6">
-        <v>1</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3192,16 +3192,16 @@
         <v>42698.425000000003</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D52" s="6">
+        <v>1</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D52" s="6">
-        <v>1</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -3209,16 +3209,16 @@
         <v>42703.944444444445</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D53" s="6">
+        <v>1</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D53" s="6">
-        <v>1</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -3226,16 +3226,16 @@
         <v>42710.590277777781</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D54" s="6">
+        <v>1</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D54" s="6">
-        <v>1</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>259</v>
       </c>
       <c r="L54" s="10"/>
     </row>
@@ -3244,16 +3244,16 @@
         <v>42726.726388888892</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D55" s="6">
         <v>1</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L55" s="10"/>
     </row>
@@ -3488,810 +3488,810 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="3">
         <v>43544.86922453704</v>
       </c>
       <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="3">
         <v>43541.935729166667</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>-1</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4" s="3">
         <v>43538.679629629631</v>
       </c>
       <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>24</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
       </c>
       <c r="D5" s="3">
         <v>43523.389178240737</v>
       </c>
       <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
         <v>28</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3">
         <v>43433.484189814822</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6">
         <v>-1</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3">
         <v>43431.795590277783</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>-1</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D8" s="1">
         <v>43322.949826388889</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D9" s="1">
         <v>43306.027268518519</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" s="2">
         <v>-1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D10" s="1">
         <v>43306.027268518519</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D11" s="1">
         <v>43300.432800925933</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="D12" s="1">
         <v>43291.942685185182</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D13" s="1">
         <v>43290.714224537027</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="2">
         <v>-1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D14" s="1">
         <v>43277.484618055547</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" s="2">
         <v>-1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="D15" s="1">
         <v>43193.580289351848</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="2">
         <v>-1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="D16" s="1">
         <v>43165.546620370369</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D17" s="1">
         <v>43128.554548611108</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="D18" s="1">
         <v>43124.499282407407</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="D19" s="1">
         <v>43124.499282407407</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="D20" s="1">
         <v>43124.499282407407</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="D21" s="1">
         <v>43117.978125000001</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="1">
         <v>43112.120196759257</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" s="2">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="D23" s="1">
         <v>43111.186828703707</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="D24" s="1">
         <v>43098.544548611113</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F24" s="2">
         <v>-1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D25" s="1">
         <v>43041.856458333343</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="D26" s="1">
         <v>43000.746516203697</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="D27" s="1">
         <v>42963.425520833327</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F27" s="2">
         <v>-1</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="D28" s="1">
         <v>42961.538043981483</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F28" s="2">
         <v>-1</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D29" s="1">
         <v>42941.108530092592</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F29" s="2">
         <v>-1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="D30" s="1">
         <v>42937.147048611107</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="D31" s="1">
         <v>42862.957488425927</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F31" s="2">
         <v>-1</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="D32" s="1">
         <v>42822.441689814812</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="F32" s="2">
-        <v>1</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="D33" s="1">
         <v>42774.807326388887</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="F33" s="2">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="D34" s="1">
         <v>42774.660428240742</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F34" s="2">
         <v>-1</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="D35" s="1">
         <v>42760.032604166663</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="F35" s="2">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="D36" s="1">
         <v>42752.746967592589</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="D37" s="1">
         <v>42744.594837962963</v>
       </c>
       <c r="E37" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D38" s="1">
         <v>42744.593171296299</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F38" s="2">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="D39" s="1">
         <v>42740.760069444441</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F39" s="2">
         <v>-1</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D40" s="1">
         <v>42739.554965277777</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F40" s="2">
         <v>1</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="D41" s="1">
         <v>42738.520891203712</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F41" s="2">
         <v>-1</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
